--- a/RIMEDIE/Mat09_2015/CONTRASTE_GoF_MAT09-MAT06.xlsx
+++ b/RIMEDIE/Mat09_2015/CONTRASTE_GoF_MAT09-MAT06.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laboratorio 25\Desktop\afchavez-019\RIMEDIE\Mat09_2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\RIMEDIE\Mat09_2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B5B426-8ED7-4F78-90FA-671473153ED1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="780" windowWidth="10755" windowHeight="12900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="780" windowWidth="10755" windowHeight="12900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 SNPA" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
   <si>
     <t>AIC</t>
   </si>
@@ -61,11 +60,14 @@
   <si>
     <t>skill pars</t>
   </si>
+  <si>
+    <t>PLANEA MAT06</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,18 +360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,12 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,12 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,6 +474,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,11 +785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,35 +813,35 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="7">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8">
-        <v>255</v>
+      <c r="E4" s="5">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4095</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -840,10 +856,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>572539.5</v>
       </c>
       <c r="D6" s="2"/>
@@ -853,10 +869,10 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>605985.69999999995</v>
       </c>
       <c r="D7" s="2"/>
@@ -875,10 +891,10 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>1.7611000000000002E-2</v>
       </c>
       <c r="D9" s="2"/>
@@ -888,10 +904,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>9.5700000000000004E-3</v>
       </c>
       <c r="D10" s="2"/>
@@ -901,10 +917,10 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>3.5349999999999999E-2</v>
       </c>
       <c r="D11" s="2"/>
@@ -934,7 +950,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2"/>
@@ -950,9 +966,177 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="27">
+        <v>44</v>
+      </c>
+      <c r="F19" s="28">
+        <v>8191</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="56">
+        <v>450755.3</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="58">
+        <v>514258.8</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="34">
+        <v>3.9626799999999997E-2</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="36">
+        <v>1.042449E-2</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="38">
+        <v>6.9069969999999994E-2</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -960,11 +1144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,21 +1172,21 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2"/>
@@ -1012,11 +1196,11 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="7">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8">
-        <v>255</v>
+      <c r="E4" s="5">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1023</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1031,10 +1215,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>397107.5</v>
       </c>
       <c r="D6" s="2"/>
@@ -1044,10 +1228,10 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>405608.7</v>
       </c>
       <c r="D7" s="2"/>
@@ -1066,10 +1250,10 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>1.6364E-2</v>
       </c>
       <c r="D9" s="2"/>
@@ -1079,10 +1263,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>4.5469999999999998E-3</v>
       </c>
       <c r="D10" s="2"/>
@@ -1092,10 +1276,10 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>3.6980699999999998E-2</v>
       </c>
       <c r="D11" s="2"/>
@@ -1125,166 +1309,170 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="25"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="31">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="27">
         <v>22</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="28">
         <v>1023</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="30">
         <v>230948.1</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="32">
         <v>239006.5</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="34">
         <v>1.5517400000000001E-2</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="36">
         <v>3.4559999999999999E-3</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="38">
         <v>3.3169999999999998E-2</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1292,15 +1480,16 @@
     <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,34 +1513,34 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>32</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>255</v>
       </c>
       <c r="G4" s="2"/>
@@ -1367,10 +1556,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>453643</v>
       </c>
       <c r="D6" s="2"/>
@@ -1380,10 +1569,10 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>455964.4</v>
       </c>
       <c r="D7" s="2"/>
@@ -1402,10 +1591,10 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>1.2387E-2</v>
       </c>
       <c r="D9" s="2"/>
@@ -1415,10 +1604,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>3.895E-3</v>
       </c>
       <c r="D10" s="2"/>
@@ -1428,14 +1617,16 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>2.2059479999999999E-2</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
@@ -1449,142 +1640,144 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="49">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="43">
         <v>34</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="44">
         <v>4095</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="46">
         <v>347016.3</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="48">
         <v>378856.7</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="50">
         <v>2.3193700000000001E-2</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="52">
         <v>6.9338999999999998E-3</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="54">
         <v>5.6016700000000003E-2</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
